--- a/20 proznostni-modul/New Microsoft Excel Worksheet.xlsx
+++ b/20 proznostni-modul/New Microsoft Excel Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\archW\Desktop\faks\fizikalni-praktikum\20 proznostni-modul\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D745D18C-CD1B-4C80-BE7D-87E881042506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB8726C-7FBC-4CDB-9601-D58C8F11AFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14055" yWindow="3585" windowWidth="14850" windowHeight="9645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="13520" tabRatio="525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>baker</t>
   </si>
@@ -57,29 +57,56 @@
     <t>l0[cm]</t>
   </si>
   <si>
-    <t>E</t>
+    <t>r[cm]</t>
   </si>
   <si>
-    <t>m[kg]</t>
+    <t>delta l[cm]</t>
   </si>
   <si>
-    <t>delta x[cm]</t>
+    <t>∆l/l</t>
   </si>
   <si>
-    <t>r[cm]</t>
+    <t>F/S[N/cm]</t>
+  </si>
+  <si>
+    <t>∆m</t>
+  </si>
+  <si>
+    <t>baker trganje</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>skupna m</t>
+  </si>
+  <si>
+    <t>E bakra</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,8 +129,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -119,6 +147,2627 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13281914845968487"/>
+          <c:y val="2.8380764847519939E-2"/>
+          <c:w val="0.82455545006566899"/>
+          <c:h val="0.84068773582907896"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>dodajanje</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="98000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.8661800486616968E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9464720194647218E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8929440389294436E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8661800486617834E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8394160583941221E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.2992700729926753E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.2457420924573971E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.021897810218978E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1678832116788287E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3625304136253009E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6058394160583945E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$6:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>256253.66669189159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>357992.44936942199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>459782.21359770279</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>561561.78151583346</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>663453.5088456152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>765324.84355509677</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>867185.98195442802</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>969118.49452481023</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1071112.1849560926</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1173003.9122858741</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1274936.4248562565</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E843-4D49-A873-77D8E15925FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>odjemanje</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.4705508227853688E-2"/>
+                  <c:y val="0.15566546041083881"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$17:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.5085158150851563E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4598540145985392E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3625304136253009E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2165450121654502E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.021897810218978E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.2457420924573971E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.7858880778588449E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.326034063260335E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8661800486617834E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8929440389294436E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$17:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1173003.9122858741</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1071112.1849560926</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>969118.49452481023</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>867185.98195442802</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>765324.84355509677</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>663453.5088456152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>561561.78151583346</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>459782.21359770279</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>357992.44936942199</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256253.66669189165</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E843-4D49-A873-77D8E15925FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="991034736"/>
+        <c:axId val="991035152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="991034736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>∆l/l</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.69517145044086948"/>
+              <c:y val="0.92477210831904921"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="991035152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="991035152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>F/S[N/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>cm</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="30000"/>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="991034736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32936945168543347"/>
+          <c:y val="0.92092755933177028"/>
+          <c:w val="0.33671047091809764"/>
+          <c:h val="6.3920920997650038E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="accent1">
+              <a:lumMod val="5000"/>
+              <a:lumOff val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="74000">
+            <a:schemeClr val="accent1">
+              <a:lumMod val="45000"/>
+              <a:lumOff val="55000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="83000">
+            <a:schemeClr val="accent1">
+              <a:lumMod val="45000"/>
+              <a:lumOff val="55000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="accent1">
+              <a:lumMod val="30000"/>
+              <a:lumOff val="70000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:softEdge rad="0"/>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11077401143488484"/>
+          <c:y val="3.1771061512047838E-2"/>
+          <c:w val="0.84763546816886104"/>
+          <c:h val="0.82815108637736068"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>dodajanje</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$30:$E$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.400384061449866E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2011521843495124E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4402304368699025E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9203072491598672E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5924147863658226E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.120499279884783E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8406144983197344E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.0009601536245797E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$30:$F$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1167.31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1730.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2292.89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2856.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3419.2799999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3983.7999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4546.24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5110.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-52F8-41B1-8309-F5F50FE0D33D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>odjemanje</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.6168398916669678E-2"/>
+                  <c:y val="0.22233349120833579"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$38:$E$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.0009601536245797E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2808449351896287E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8007681228996639E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3206913106096992E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9846375420067208E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4565530484877609E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0244839174267918E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$38:$F$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4445.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3883.2700000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3319.5600000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2756.9000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2194.0400000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1631.4300000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1069.6800000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-52F8-41B1-8309-F5F50FE0D33D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1258696384"/>
+        <c:axId val="1258704704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1258696384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>∆l/l</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.6799924570617637"/>
+              <c:y val="0.91810076372032445"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1258704704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1258704704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>F/S[N/cm</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="1" i="0" baseline="30000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="900">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1258696384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28509465843524728"/>
+          <c:y val="0.91530104789532885"/>
+          <c:w val="0.37417011739751677"/>
+          <c:h val="6.34402936475046E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>173567</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>156633</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>67733</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BF32814-DEFC-4CD5-831E-0629DCE81D5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>516465</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>4234</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{598615BB-A751-4297-B42D-B9A0CB375824}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -384,17 +3033,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:K45"/>
+  <dimension ref="A4:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="I6" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="3" max="3" width="10.41015625" customWidth="1"/>
+    <col min="5" max="5" width="11.64453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.76171875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.64453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.76171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:11" x14ac:dyDescent="0.5">
@@ -408,19 +3059,22 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="I4" t="s">
         <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K4" t="s">
         <v>5</v>
@@ -439,24 +3093,20 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5">
-        <f>B5/1000</f>
-        <v>0.15156999999999998</v>
-      </c>
-      <c r="G5" t="e">
-        <f>ABS(E5*0.0981*$I$5/(D5*$K$5))</f>
-        <v>#DIV/0!</v>
+      <c r="F5">
+        <f>B5</f>
+        <v>151.57</v>
       </c>
       <c r="I5">
         <v>205.5</v>
       </c>
       <c r="J5">
-        <f>35*(POWER(10,-3))</f>
-        <v>3.5000000000000003E-2</v>
+        <f>35*(POWER(10,-6))*100/2</f>
+        <v>1.7499999999999998E-3</v>
       </c>
       <c r="K5">
         <f>PI()*J5*J5</f>
-        <v>3.8484510006474974E-3</v>
+        <v>9.6211275016187396E-6</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.5">
@@ -475,12 +3125,16 @@
         <v>9.9999999999997868E-3</v>
       </c>
       <c r="E6">
-        <f>(E5+B6/1000)</f>
-        <v>0.25131999999999999</v>
+        <f>(C6-C$5)/I$5</f>
+        <v>4.8661800486616968E-5</v>
+      </c>
+      <c r="F6">
+        <f>F5+B6</f>
+        <v>251.32</v>
       </c>
       <c r="G6">
-        <f>ABS(E6*0.0981*$I$5/(D6*$K$5))</f>
-        <v>131650.32126296207</v>
+        <f>F6/1000*9.81/K$5</f>
+        <v>256253.66669189159</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.5">
@@ -499,12 +3153,16 @@
         <v>3.0000000000000249E-2</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E26" si="2">(E6+B7/1000)</f>
-        <v>0.35109999999999997</v>
+        <f t="shared" ref="E7:E26" si="2">(C7-C$5)/I$5</f>
+        <v>1.9464720194647218E-4</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7:F26" si="3">F6+B7</f>
+        <v>351.1</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:G26" si="3">ABS(E7*0.0981*$I$5/(D7*$K$5))</f>
-        <v>61306.206954512978</v>
+        <f t="shared" ref="G7:G26" si="4">F7/1000*9.81/K$5</f>
+        <v>357992.44936942199</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.5">
@@ -524,11 +3182,15 @@
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>0.45092999999999994</v>
+        <v>3.8929440389294436E-4</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>450.93</v>
       </c>
       <c r="G8">
-        <f t="shared" si="3"/>
-        <v>59053.278058954886</v>
+        <f t="shared" si="4"/>
+        <v>459782.21359770279</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.5">
@@ -548,11 +3210,15 @@
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
-        <v>0.55074999999999996</v>
+        <v>4.8661800486617834E-4</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>550.75</v>
       </c>
       <c r="G9">
-        <f t="shared" si="3"/>
-        <v>144251.18262688277</v>
+        <f t="shared" si="4"/>
+        <v>561561.78151583346</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.5">
@@ -572,11 +3238,15 @@
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>0.65067999999999993</v>
+        <v>5.8394160583941221E-4</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>650.68000000000006</v>
       </c>
       <c r="G10">
-        <f t="shared" si="3"/>
-        <v>170424.62008472098</v>
+        <f t="shared" si="4"/>
+        <v>663453.5088456152</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.5">
@@ -596,11 +3266,15 @@
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>0.75058999999999987</v>
+        <v>7.2992700729926753E-4</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>750.59</v>
       </c>
       <c r="G11">
-        <f t="shared" si="3"/>
-        <v>131061.87945880916</v>
+        <f t="shared" si="4"/>
+        <v>765324.84355509677</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.5">
@@ -620,11 +3294,15 @@
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>0.85048999999999986</v>
+        <v>9.2457420924573971E-4</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>850.49</v>
       </c>
       <c r="G12">
-        <f t="shared" si="3"/>
-        <v>111379.1995572717</v>
+        <f t="shared" si="4"/>
+        <v>867185.98195442802</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.5">
@@ -644,11 +3322,15 @@
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>0.95045999999999986</v>
+        <v>1.021897810218978E-3</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>950.46</v>
       </c>
       <c r="G13">
-        <f t="shared" si="3"/>
-        <v>248942.31328105472</v>
+        <f t="shared" si="4"/>
+        <v>969118.49452481023</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.5">
@@ -668,11 +3350,15 @@
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>1.0504899999999999</v>
+        <v>1.1678832116788287E-3</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>1050.49</v>
       </c>
       <c r="G14">
-        <f t="shared" si="3"/>
-        <v>183427.96167373468</v>
+        <f t="shared" si="4"/>
+        <v>1071112.1849560926</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.5">
@@ -692,11 +3378,15 @@
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>1.15042</v>
+        <v>1.3625304136253009E-3</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>1150.42</v>
       </c>
       <c r="G15">
-        <f t="shared" si="3"/>
-        <v>150657.68998421679</v>
+        <f t="shared" si="4"/>
+        <v>1173003.9122858741</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.5">
@@ -716,16 +3406,20 @@
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>1.2503899999999999</v>
+        <v>1.6058394160583945E-3</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>1250.3900000000001</v>
       </c>
       <c r="G16">
-        <f t="shared" si="3"/>
-        <v>130999.71765397843</v>
+        <f t="shared" si="4"/>
+        <v>1274936.4248562565</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A17">
-        <f>A16+1</f>
+        <f t="shared" ref="A17:A26" si="5">A16+1</f>
         <v>12</v>
       </c>
       <c r="B17">
@@ -740,16 +3434,20 @@
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>1.15042</v>
+        <v>1.5085158150851563E-3</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>1150.42</v>
       </c>
       <c r="G17">
-        <f t="shared" si="3"/>
-        <v>301315.37996842689</v>
+        <f t="shared" si="4"/>
+        <v>1173003.9122858741</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A18">
-        <f>A17+1</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="B18">
@@ -764,16 +3462,20 @@
       </c>
       <c r="E18">
         <f t="shared" si="2"/>
-        <v>1.0504899999999999</v>
+        <v>1.4598540145985392E-3</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>1050.49</v>
       </c>
       <c r="G18">
-        <f t="shared" si="3"/>
-        <v>550283.88502120401</v>
+        <f t="shared" si="4"/>
+        <v>1071112.1849560926</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A19">
-        <f>A18+1</f>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="B19">
@@ -788,16 +3490,20 @@
       </c>
       <c r="E19">
         <f t="shared" si="2"/>
-        <v>0.95045999999999986</v>
+        <v>1.3625304136253009E-3</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>950.46</v>
       </c>
       <c r="G19">
-        <f t="shared" si="3"/>
-        <v>248942.31328105472</v>
+        <f t="shared" si="4"/>
+        <v>969118.49452481023</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A20">
-        <f>A19+1</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B20">
@@ -812,16 +3518,20 @@
       </c>
       <c r="E20">
         <f t="shared" si="2"/>
-        <v>0.85048999999999986</v>
+        <v>1.2165450121654502E-3</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>850.49</v>
       </c>
       <c r="G20">
-        <f t="shared" si="3"/>
-        <v>148505.59940969892</v>
+        <f t="shared" si="4"/>
+        <v>867185.98195442802</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A21">
-        <f>A20+1</f>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="B21">
@@ -836,16 +3546,20 @@
       </c>
       <c r="E21">
         <f t="shared" si="2"/>
-        <v>0.75058999999999987</v>
+        <v>1.021897810218978E-3</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>750.59</v>
       </c>
       <c r="G21">
-        <f t="shared" si="3"/>
-        <v>98296.409594107608</v>
+        <f t="shared" si="4"/>
+        <v>765324.84355509677</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A22">
-        <f>A21+1</f>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="B22">
@@ -860,16 +3574,20 @@
       </c>
       <c r="E22">
         <f t="shared" si="2"/>
-        <v>0.65067999999999993</v>
+        <v>9.2457420924573971E-4</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>650.68000000000006</v>
       </c>
       <c r="G22">
-        <f t="shared" si="3"/>
-        <v>170424.62008471342</v>
+        <f t="shared" si="4"/>
+        <v>663453.5088456152</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A23">
-        <f>A22+1</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="B23">
@@ -884,16 +3602,20 @@
       </c>
       <c r="E23">
         <f t="shared" si="2"/>
-        <v>0.55074999999999996</v>
+        <v>7.7858880778588449E-4</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>550.75</v>
       </c>
       <c r="G23">
-        <f t="shared" si="3"/>
-        <v>96167.455084585657</v>
+        <f t="shared" si="4"/>
+        <v>561561.78151583346</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A24">
-        <f>A23+1</f>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="B24">
@@ -908,16 +3630,20 @@
       </c>
       <c r="E24">
         <f t="shared" si="2"/>
-        <v>0.45092999999999994</v>
+        <v>6.326034063260335E-4</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>450.93</v>
       </c>
       <c r="G24">
-        <f t="shared" si="3"/>
-        <v>78737.704078608265</v>
+        <f t="shared" si="4"/>
+        <v>459782.21359770279</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A25">
-        <f>A24+1</f>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="B25">
@@ -932,16 +3658,20 @@
       </c>
       <c r="E25">
         <f t="shared" si="2"/>
-        <v>0.35109999999999997</v>
+        <v>4.8661800486617834E-4</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>351.1</v>
       </c>
       <c r="G25">
-        <f t="shared" si="3"/>
-        <v>61306.206954512978</v>
+        <f t="shared" si="4"/>
+        <v>357992.44936942199</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A26">
-        <f>A25+1</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="B26">
@@ -956,11 +3686,15 @@
       </c>
       <c r="E26">
         <f t="shared" si="2"/>
-        <v>0.25131999999999999</v>
+        <v>3.8929440389294436E-4</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>251.32000000000002</v>
       </c>
       <c r="G26">
-        <f t="shared" si="3"/>
-        <v>65825.160631481034</v>
+        <f t="shared" si="4"/>
+        <v>256253.66669189165</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.5">
@@ -981,24 +3715,24 @@
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29">
-        <f>B29/1000</f>
-        <v>0.60557000000000005</v>
+      <c r="F29">
+        <f>B29</f>
+        <v>605.57000000000005</v>
       </c>
       <c r="G29" t="e">
-        <f>ABS(E29/100*$J$29/(D29*$K$29))</f>
+        <f t="shared" ref="G29:G45" si="6">ABS(E29/100*$J$29/(D29*$K$29))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I29">
-        <v>2.0830000000000002</v>
+        <v>208.3</v>
       </c>
       <c r="J29">
-        <f>30*POWER(10,-3)/2</f>
-        <v>1.4999999999999999E-2</v>
+        <f>30*POWER(10,-6)/2</f>
+        <v>1.4999999999999999E-5</v>
       </c>
       <c r="K29">
         <f>PI()*J29*J29</f>
-        <v>7.0685834705770342E-4</v>
+        <v>7.0685834705770333E-10</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.5">
@@ -1017,12 +3751,16 @@
         <v>5.0000000000000711E-2</v>
       </c>
       <c r="E30">
-        <f>E29+B30/1000</f>
-        <v>1.1673100000000001</v>
+        <f>(C30-C$29)/I$29</f>
+        <v>2.400384061449866E-4</v>
+      </c>
+      <c r="F30">
+        <f>F29+B30</f>
+        <v>1167.31</v>
       </c>
       <c r="G30">
-        <f>ABS(E30/100*$J$29/(D30*$K$29))</f>
-        <v>4.9542175098826062</v>
+        <f>F6/1000*9.81/K$29</f>
+        <v>3487897129.9729686</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.5">
@@ -1037,16 +3775,20 @@
         <v>13</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D31:D45" si="4">C31-C30</f>
+        <f t="shared" ref="D31:D45" si="7">C31-C30</f>
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="E31">
-        <f t="shared" ref="E31:E44" si="5">E30+B31/1000</f>
-        <v>1.7302300000000002</v>
+        <f t="shared" ref="E31:E45" si="8">(C31-C$29)/I$29</f>
+        <v>7.2011521843495124E-4</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ref="F31:F45" si="9">F30+B31</f>
+        <v>1730.23</v>
       </c>
       <c r="G31">
-        <f>ABS(E31/100*$J$29/(D31*$K$29))</f>
-        <v>3.6716620958118815</v>
+        <f t="shared" ref="G31:G45" si="10">F7/1000*9.81/K$29</f>
+        <v>4872675005.3060217</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.5">
@@ -1061,16 +3803,20 @@
         <v>13.15</v>
       </c>
       <c r="D32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.15000000000000036</v>
       </c>
       <c r="E32">
-        <f t="shared" si="5"/>
-        <v>2.2928899999999999</v>
+        <f t="shared" si="8"/>
+        <v>1.4402304368699025E-3</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="9"/>
+        <v>2292.89</v>
       </c>
       <c r="G32">
-        <f>ABS(E32/100*$J$29/(D32*$K$29))</f>
-        <v>3.2437757996975556</v>
+        <f t="shared" si="10"/>
+        <v>6258146796.1909552</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.5">
@@ -1085,16 +3831,20 @@
         <v>13.25</v>
       </c>
       <c r="D33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="E33">
-        <f t="shared" si="5"/>
-        <v>2.8565999999999998</v>
+        <f t="shared" si="8"/>
+        <v>1.9203072491598672E-3</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="9"/>
+        <v>2856.6</v>
       </c>
       <c r="G33">
-        <f>ABS(E33/100*$J$29/(D33*$K$29))</f>
-        <v>6.0618934724841314</v>
+        <f t="shared" si="10"/>
+        <v>7643479803.9655113</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.5">
@@ -1109,16 +3859,20 @@
         <v>13.39</v>
       </c>
       <c r="D34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.14000000000000057</v>
       </c>
       <c r="E34">
-        <f t="shared" si="5"/>
-        <v>3.4192799999999997</v>
+        <f t="shared" si="8"/>
+        <v>2.5924147863658226E-3</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="9"/>
+        <v>3419.2799999999997</v>
       </c>
       <c r="G34">
-        <f>ABS(E34/100*$J$29/(D34*$K$29))</f>
-        <v>5.1828125125262252</v>
+        <f t="shared" si="10"/>
+        <v>9030339425.9542065</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.5">
@@ -1133,16 +3887,20 @@
         <v>13.5</v>
       </c>
       <c r="D35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.10999999999999943</v>
       </c>
       <c r="E35">
-        <f t="shared" si="5"/>
-        <v>3.9837999999999996</v>
+        <f t="shared" si="8"/>
+        <v>3.120499279884783E-3</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="9"/>
+        <v>3983.7999999999997</v>
       </c>
       <c r="G35">
-        <f>ABS(E35/100*$J$29/(D35*$K$29))</f>
-        <v>7.6853510580544961</v>
+        <f t="shared" si="10"/>
+        <v>10416921481.722149</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.5">
@@ -1157,16 +3915,20 @@
         <v>13.65</v>
       </c>
       <c r="D36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.15000000000000036</v>
       </c>
       <c r="E36">
-        <f t="shared" si="5"/>
-        <v>4.5462399999999992</v>
+        <f t="shared" si="8"/>
+        <v>3.8406144983197344E-3</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="9"/>
+        <v>4546.24</v>
       </c>
       <c r="G36">
-        <f>ABS(E36/100*$J$29/(D36*$K$29))</f>
-        <v>6.4316139420630787</v>
+        <f t="shared" si="10"/>
+        <v>11803364754.379715</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.5">
@@ -1181,16 +3943,20 @@
         <v>14.1</v>
       </c>
       <c r="D37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.44999999999999929</v>
       </c>
       <c r="E37">
-        <f t="shared" si="5"/>
-        <v>5.1102399999999992</v>
+        <f t="shared" si="8"/>
+        <v>6.0009601536245797E-3</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="9"/>
+        <v>5110.24</v>
       </c>
       <c r="G37">
-        <f>ABS(E37/100*$J$29/(D37*$K$29))</f>
-        <v>2.409836907810158</v>
+        <f t="shared" si="10"/>
+        <v>13190779508.809917</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.5">
@@ -1205,16 +3971,20 @@
         <v>14.1</v>
       </c>
       <c r="D38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E38">
-        <f t="shared" si="5"/>
-        <v>4.4456799999999994</v>
-      </c>
-      <c r="G38" t="e">
-        <f>ABS(E38/100*$J$29/(D38*$K$29))</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="8"/>
+        <v>6.0009601536245797E-3</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="9"/>
+        <v>4445.68</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="10"/>
+        <v>14579026961.90237</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.5">
@@ -1229,16 +3999,20 @@
         <v>13.95</v>
       </c>
       <c r="D39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.15000000000000036</v>
       </c>
       <c r="E39">
-        <f t="shared" si="5"/>
-        <v>3.8832699999999996</v>
+        <f t="shared" si="8"/>
+        <v>5.2808449351896287E-3</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="9"/>
+        <v>3883.2700000000004</v>
       </c>
       <c r="G39">
-        <f>ABS(E39/100*$J$29/(D39*$K$29))</f>
-        <v>5.4937032520930034</v>
+        <f t="shared" si="10"/>
+        <v>15965886583.891066</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.5">
@@ -1253,16 +4027,20 @@
         <v>13.85</v>
       </c>
       <c r="D40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-9.9999999999999645E-2</v>
       </c>
       <c r="E40">
-        <f t="shared" si="5"/>
-        <v>3.3195599999999996</v>
+        <f t="shared" si="8"/>
+        <v>4.8007681228996639E-3</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="9"/>
+        <v>3319.5600000000004</v>
       </c>
       <c r="G40">
-        <f>ABS(E40/100*$J$29/(D40*$K$29))</f>
-        <v>7.0443251052017875</v>
+        <f t="shared" si="10"/>
+        <v>17353301338.321266</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.5">
@@ -1277,16 +4055,20 @@
         <v>13.75</v>
       </c>
       <c r="D41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-9.9999999999999645E-2</v>
       </c>
       <c r="E41">
-        <f t="shared" si="5"/>
-        <v>2.7568999999999999</v>
+        <f t="shared" si="8"/>
+        <v>4.3206913106096992E-3</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="9"/>
+        <v>2756.9000000000005</v>
       </c>
       <c r="G41">
-        <f>ABS(E41/100*$J$29/(D41*$K$29))</f>
-        <v>5.8503235014673045</v>
+        <f t="shared" si="10"/>
+        <v>15965886583.891066</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.5">
@@ -1301,16 +4083,20 @@
         <v>13.68</v>
       </c>
       <c r="D42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-7.0000000000000284E-2</v>
       </c>
       <c r="E42">
-        <f t="shared" si="5"/>
-        <v>2.1940399999999998</v>
+        <f t="shared" si="8"/>
+        <v>3.9846375420067208E-3</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="9"/>
+        <v>2194.0400000000004</v>
       </c>
       <c r="G42">
-        <f>ABS(E42/100*$J$29/(D42*$K$29))</f>
-        <v>6.6512821207874397</v>
+        <f t="shared" si="10"/>
+        <v>14579026961.90237</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.5">
@@ -1325,16 +4111,20 @@
         <v>13.57</v>
       </c>
       <c r="D43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-0.10999999999999943</v>
       </c>
       <c r="E43">
-        <f t="shared" si="5"/>
-        <v>1.6314299999999997</v>
+        <f t="shared" si="8"/>
+        <v>3.4565530484877609E-3</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="9"/>
+        <v>1631.4300000000003</v>
       </c>
       <c r="G43">
-        <f>ABS(E43/100*$J$29/(D43*$K$29))</f>
-        <v>3.1472745310110559</v>
+        <f t="shared" si="10"/>
+        <v>13190779508.809917</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.5">
@@ -1349,16 +4139,20 @@
         <v>13.48</v>
       </c>
       <c r="D44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-8.9999999999999858E-2</v>
       </c>
       <c r="E44">
-        <f t="shared" si="5"/>
-        <v>1.0696799999999997</v>
+        <f t="shared" si="8"/>
+        <v>3.0244839174267918E-3</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="9"/>
+        <v>1069.6800000000003</v>
       </c>
       <c r="G44">
-        <f>ABS(E44/100*$J$29/(D44*$K$29))</f>
-        <v>2.5221460670598344</v>
+        <f t="shared" si="10"/>
+        <v>11803364754.379715</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.5">
@@ -1373,16 +4167,229 @@
         <v>13.4</v>
       </c>
       <c r="D45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-8.0000000000000071E-2</v>
       </c>
-      <c r="E45" t="e">
-        <f>E44+B45</f>
+      <c r="E45">
+        <f t="shared" si="8"/>
+        <v>2.6404224675948182E-3</v>
+      </c>
+      <c r="F45" t="e">
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G45" t="e">
-        <f>ABS(E45/100*$J$29/(D45*$K$29))</f>
-        <v>#VALUE!</v>
+      <c r="G45">
+        <f t="shared" si="10"/>
+        <v>10416921481.722149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50">
+        <f>700000000</f>
+        <v>700000000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>39.08</v>
+      </c>
+      <c r="C53">
+        <f>B53/1000*9.81</f>
+        <v>0.38337479999999996</v>
+      </c>
+      <c r="E53">
+        <v>39.08</v>
+      </c>
+      <c r="F53">
+        <f>E53</f>
+        <v>39.08</v>
+      </c>
+      <c r="H53">
+        <v>39.08</v>
+      </c>
+      <c r="I53">
+        <f>H53</f>
+        <v>39.08</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A54">
+        <f>A53+1</f>
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <v>49.95</v>
+      </c>
+      <c r="C54">
+        <f>C53+B54/1000*9.81</f>
+        <v>0.8733843</v>
+      </c>
+      <c r="E54">
+        <v>49.96</v>
+      </c>
+      <c r="F54">
+        <f>F53+E54</f>
+        <v>89.039999999999992</v>
+      </c>
+      <c r="H54">
+        <v>49.99</v>
+      </c>
+      <c r="I54">
+        <f>I53+H54</f>
+        <v>89.07</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A55">
+        <f t="shared" ref="A55:A61" si="11">A54+1</f>
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <v>100.16</v>
+      </c>
+      <c r="C55">
+        <f>C54+B55/1000*9.81</f>
+        <v>1.8559539</v>
+      </c>
+      <c r="E55">
+        <v>24.24</v>
+      </c>
+      <c r="F55">
+        <f>F54+E55</f>
+        <v>113.27999999999999</v>
+      </c>
+      <c r="H55">
+        <v>109.22</v>
+      </c>
+      <c r="I55">
+        <f t="shared" ref="I55:I57" si="12">I54+H55</f>
+        <v>198.29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A56">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="E56">
+        <v>29.63</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ref="F56:F61" si="13">F55+E56</f>
+        <v>142.91</v>
+      </c>
+      <c r="H56">
+        <v>29.6</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="12"/>
+        <v>227.89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A57">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <v>19.11</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="13"/>
+        <v>162.01999999999998</v>
+      </c>
+      <c r="H57">
+        <v>29.4</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="12"/>
+        <v>257.28999999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A58">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="E58">
+        <v>19.21</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="13"/>
+        <v>181.23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A59">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="E59">
+        <v>19.32</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="13"/>
+        <v>200.54999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A60">
+        <f>A59+1</f>
+        <v>8</v>
+      </c>
+      <c r="E60">
+        <v>19.02</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="13"/>
+        <v>219.57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A61">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="E61">
+        <v>29.36</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="13"/>
+        <v>248.93</v>
       </c>
     </row>
   </sheetData>
@@ -1390,5 +4397,7 @@
     <sortCondition descending="1" ref="A17:A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>